--- a/pred_ohlcv/54_21/2019-11-01 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 FNB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-440968.9406510851</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-440968.9406510851</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-399424.429251085</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-612106.3313510851</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-612106.3313510851</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-612106.3313510851</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-612106.3313510851</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-304676.6106510851</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>48028.18453005783</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>48028.18453005783</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -938,7 +938,7 @@
         <v>2253939.223930058</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>2250510.223930058</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>2250538.557230058</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>2250538.557230058</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>2250538.557230058</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>2250538.244430058</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>2221971.550130058</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>2221981.550130058</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>2221963.550130058</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>2226963.550130058</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>2226963.550130058</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>2185349.197299332</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>2086391.770499332</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>2101518.259899332</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>1813077.914699332</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1725765.446199332</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>1874902.917099332</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>1874902.917099332</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1670081.102799332</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>489258.3806548874</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>489258.3806548874</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>491269.5893548874</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>491269.5893548874</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>4105651.979054886</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>4105651.979054886</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>4174248.663454887</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>4086058.941054887</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>4086058.941054887</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>4661178.626854886</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>4661178.626854886</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>4385083.909854886</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>4385083.909854886</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>4385083.909854886</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>4081366.139454886</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>3743624.313354886</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>4035449.871254886</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>4010060.871254886</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>4010060.871254886</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>4010060.871254886</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>4149809.150754886</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>4149798.150754886</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>4224149.816154886</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>4224149.816154886</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>4224149.816154886</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>4224149.816154886</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>4224149.816154886</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>4224149.816154886</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>4224149.816154886</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>4216321.046354886</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>4369403.438754886</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>4040223.097954886</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>4040223.097954886</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>3965832.773654887</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>3110656.604854886</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-228080.9947451134</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-132226.4893451134</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-5957769.656046025</v>
       </c>
       <c r="H529">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-5957759.656046025</v>
       </c>
       <c r="H530">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-6504451.961846026</v>
       </c>
       <c r="H533">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-6004451.961846026</v>
       </c>
       <c r="H534">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-6004462.883546025</v>
       </c>
       <c r="H535">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-5675521.181346025</v>
       </c>
       <c r="H536">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-5675521.181346025</v>
       </c>
       <c r="H537">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-5690447.120546025</v>
       </c>
       <c r="H541">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-5690447.120546025</v>
       </c>
       <c r="H542">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-5690436.120546025</v>
       </c>
       <c r="H543">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-5710386.120546025</v>
       </c>
       <c r="H546">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-5710386.120546025</v>
       </c>
       <c r="H547">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-5710386.120546025</v>
       </c>
       <c r="H548">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-5700312.261047149</v>
       </c>
       <c r="H549">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-5700312.261047149</v>
       </c>
       <c r="H550">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-5700312.261047149</v>
       </c>
       <c r="H551">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-5700344.273047149</v>
       </c>
       <c r="H552">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-5689733.739447149</v>
       </c>
       <c r="H554">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-5649492.487247149</v>
       </c>
       <c r="H564">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-5649492.487247149</v>
       </c>
       <c r="H565">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-5649946.43824715</v>
       </c>
       <c r="H566">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-5649946.43824715</v>
       </c>
       <c r="H567">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-01 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 FNB ohlcv.xlsx
@@ -938,7 +938,7 @@
         <v>2253939.223930058</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>2250510.223930058</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>2250538.557230058</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>2250538.557230058</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>2250538.557230058</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>2250538.244430058</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>2221971.550130058</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>2221981.550130058</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>2221963.550130058</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>2226963.550130058</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>2226963.550130058</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>2185349.197299332</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>2086391.770499332</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>2101518.259899332</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>1813077.914699332</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1725765.446199332</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>1874902.917099332</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>1874902.917099332</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1670081.102799332</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>489258.3806548874</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>489258.3806548874</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>491269.5893548874</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>491269.5893548874</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>3912780.401354887</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>4105651.979054886</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>4105651.979054886</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>4105651.979054886</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>4105651.979054886</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>4174248.663454887</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>4086058.941054887</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>4086058.941054887</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>4661178.626854886</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>4661178.626854886</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>4385083.909854886</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>4385083.909854886</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>4385083.909854886</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>4081366.139454886</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>3743624.313354886</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>3937724.104954886</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>4035449.871254886</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>4010060.871254886</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>4010060.871254886</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>4010060.871254886</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>4149809.150754886</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>4149798.150754886</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>4224149.816154886</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>4224149.816154886</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>4224149.816154886</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>4224149.816154886</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>4224149.816154886</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>4224149.816154886</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>4224149.816154886</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>4216321.046354886</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>4369403.438754886</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>4040223.097954886</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>4040223.097954886</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-5939523.792046025</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-5939523.792046025</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-5939523.792046025</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-5939523.792046025</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-5939523.792046025</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-5939523.792046025</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-5939513.792046025</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-6005499.045746026</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-6005499.045746026</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-6005499.045746026</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-6005499.045746026</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-6005499.045746026</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-6005532.990746026</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-6005532.990746026</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-5931810.113746026</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-5957769.656046025</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-5957769.656046025</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-5957769.656046025</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-5957759.656046025</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-6504429.989346026</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-6504429.989346026</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-6504451.961846026</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-6004451.961846026</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-6004462.883546025</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-5675521.181346025</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-5675521.181346025</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-5675521.181346025</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-5675521.181346025</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-5690447.120546025</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-5690447.120546025</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-5690447.120546025</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-5690436.120546025</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-5690436.120546025</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-5710386.120546025</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-5710386.120546025</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-5710386.120546025</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-5710386.120546025</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-5700312.261047149</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-5700312.261047149</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-5700312.261047149</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-5700344.273047149</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-5689733.739447149</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-5689733.739447149</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-5649492.487247149</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-5649492.487247149</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-5649492.487247149</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-5649946.43824715</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-5649946.43824715</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-5523198.28184715</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-5523198.28184715</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-5392836.11524715</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-5392836.11524715</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-5482284.67064715</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-5391269.78184715</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-5391269.78184715</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-5414127.78184715</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-5412114.43144715</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-5412114.43144715</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-5240717.943580484</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-5240717.943580484</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-5240717.943580484</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-5240717.943580484</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-5240717.943580484</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-5240717.943580484</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-5240717.943580484</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-5240717.943580484</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-5240717.943580484</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-4830478.357129103</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-4830478.357129103</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-4830478.357129103</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-4830478.357129103</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-4829992.711029103</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-4879992.711029103</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-4879992.711029103</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-4884907.597029103</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-4883449.031329103</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-4883449.031329103</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-4883449.031329103</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-5006849.423729103</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-4973607.474829103</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-5064198.271429103</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-5064198.271429103</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-5064188.271429103</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-5253645.375229103</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-5253645.375229103</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-5093263.275829103</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-5093263.275829103</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-5093263.275829103</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-4666798.744477722</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
